--- a/cosfeater/evidence.xlsx
+++ b/cosfeater/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\cosfeater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829C7D85-1138-4649-94B4-7A1A85DF4AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246F0FB6-C230-4236-962D-C52130348C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="87">
   <si>
     <t>TeamName</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>6E5B3ABD09FE6B9C91D216D93A85B762484268C0665DDA6535F1919450627F7E</t>
+  </si>
+  <si>
+    <t>ibc/ADDF4FA4895AED72F2CA974C5C0D9D9F1FCD85E08084C8BBB545956705B3E343</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1839,7 +1842,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,7 +1870,9 @@
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
@@ -1934,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1969,9 @@
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
